--- a/biology/Microbiologie/Astylozoidae/Astylozoidae.xlsx
+++ b/biology/Microbiologie/Astylozoidae/Astylozoidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Astylozoidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Astylozoon, composé du « a privatif », du préfixe styl (du grec ancien στυλοσ / stylos, « tige, colonne, poteau »), et du suffixe zoid, « animal » , littéralement « animal sans tige », en référence au fait que ce cilié semble s'être « secondairement dépourvu d'une tige »[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Astylozoon, composé du « a privatif », du préfixe styl (du grec ancien στυλοσ / stylos, « tige, colonne, poteau »), et du suffixe zoid, « animal » , littéralement « animal sans tige », en référence au fait que ce cilié semble s'être « secondairement dépourvu d'une tige ». 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Astylozoidae ont une taille petite (&lt; 80 μm) à moyenne (80 à 200 μm). Ils ont la forme d’une cloche. Leur trophonte[note 1] nage librement ; il semble s’agir d’une forme qui s’est secondairement dépourvue de tige; elle nage en utilisant la ciliature buccale, son extrémité buccale étant tournée vers l'avant. Le télotroche [note 2] est dépourvu de ciliature somatique. Le trophonte possède une ou deux soies caudales rigides ou de courts cils caudaux issus de la scopula[note 3].
-Leur macronoyau est en forme de bande. Micronoyau et vacuole contractile sont présents Le cytoprocte n’a pas été observé. Certaines espèces peuvent se transformer en kyste[1].
+Leur macronoyau est en forme de bande. Micronoyau et vacuole contractile sont présents Le cytoprocte n’a pas été observé. Certaines espèces peuvent se transformer en kyste.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Astylozoidae vivent eau eau douce, en particulier dans le plancton, dans des mares temporaires ou de petits étangs[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Astylozoidae vivent eau eau douce, en particulier dans le plancton, dans des mares temporaires ou de petits étangs.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (26 décembre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (26 décembre 2023) :
 Astylozoon Engelmann, 1862
 Ordre synonyme : Geleiella Stiller, 1939
 Espèce type : Astylozoon fallax Engelmann, 1862
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Astylozoidae Kahl, 1935[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Astylozoidae Kahl, 1935.
 </t>
         </is>
       </c>
